--- a/biology/Zoologie/Groupe_mammalogique_breton/Groupe_mammalogique_breton.xlsx
+++ b/biology/Zoologie/Groupe_mammalogique_breton/Groupe_mammalogique_breton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Groupe mammalogique breton (GMB) est une association, d'étude et de protection des mammifères sauvages de Bretagne créée en 1988.
 </t>
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le GMB est une association agréé au titre des associations de protection de l'environnement au niveau régional (Bretagne administrative), affiliée à France Nature Environnement[1]. L'étude d'intervention de la structure est la Bretagne administrative et la Loire-Atlantique. Le siège de l'association est situé à la Maison de la rivière à Sizun (Finistère). Des antennes salariales sont également présentes à Pluguffan (Côtes-d'Armor), Redon (Ille-et-Vilaine) et Guenrouet (Loire-Atlantique). En 2019, le GMB est animé par une équipe de 8 salariés et regroupe plus de 400 adhérents[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le GMB est une association agréé au titre des associations de protection de l'environnement au niveau régional (Bretagne administrative), affiliée à France Nature Environnement. L'étude d'intervention de la structure est la Bretagne administrative et la Loire-Atlantique. Le siège de l'association est situé à la Maison de la rivière à Sizun (Finistère). Des antennes salariales sont également présentes à Pluguffan (Côtes-d'Armor), Redon (Ille-et-Vilaine) et Guenrouet (Loire-Atlantique). En 2019, le GMB est animé par une équipe de 8 salariés et regroupe plus de 400 adhérents.
 </t>
         </is>
       </c>
@@ -544,36 +558,111 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Étude des mammifères
-Le GMB mène des actions spécifiques sur l'étude et la protection des mammifères, notamment : 
+          <t>Étude des mammifères</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le GMB mène des actions spécifiques sur l'étude et la protection des mammifères, notamment : 
 les Mammifères semi-aquatiques :  Loutre d'Europe, Castor d'Europe...
 les chauves-souris, particulièrement le Grand rhinolophe
 les Micromammifères : Muscardin, Campagnol amphibie
-Pour faciliter le recueil des données par les naturalistes bénévoles, le GMB, Bretagne Vivante, le GRETIA,  ont mis en place un portail en ligne[3].
+Pour faciliter le recueil des données par les naturalistes bénévoles, le GMB, Bretagne Vivante, le GRETIA,  ont mis en place un portail en ligne.
 			Loutre d'Europe
 			Grand Rhinolophe
 			Hérisson d'Europe
 			Écureuil roux
 			Campagnol amphibie
-Le GMB a publié en 2015 l'Atlas des mammifères sauvages de Bretagne[4].
-Protection des mammifères
-Le GMB travaille à la protection des mammifères :
+Le GMB a publié en 2015 l'Atlas des mammifères sauvages de Bretagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Groupe_mammalogique_breton</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_mammalogique_breton</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Actions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Protection des mammifères</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le GMB travaille à la protection des mammifères :
 en animant un réseau de gîtes protégés : réserves associatives (58 en 2018),
-en construisant des catiches pouvant servir de lieux de vie pour les loutres, ce qui a été fait sur le site Natura 2000 de l'Élorn[5].
-en créant des chiroptières, passe permettant un accès facilité pour les chauves-souris aux combles de bâtiments (sans que les corbeaux ou pigeons puissent s'y glisser), ce qui a été fait à Brélévenez en 2007[6].
+en construisant des catiches pouvant servir de lieux de vie pour les loutres, ce qui a été fait sur le site Natura 2000 de l'Élorn.
+en créant des chiroptières, passe permettant un accès facilité pour les chauves-souris aux combles de bâtiments (sans que les corbeaux ou pigeons puissent s'y glisser), ce qui a été fait à Brélévenez en 2007.
 			Chiroptière
 			Passage à écureuil
 Le GMB propose une reconnaissance et mise en valeur des sites avec des labels :
-Havres de paix pour la loutre : il en existait 59 en 2019, comme les abords du lac du Drennec par exemple[7].
-Refuges à chauves-souris, il en existait 180 en 2019, comme l'abbaye de Beauport ou le domaine de Ménez-Meur par exemple[8]
-Vulgarisation sur les mammifères
-Le GMB a organisé :
-la Journée des Mammifères sauvages de Bretagne, réunion annuelle des mammalogistes bretons depuis 2007[9].
-le XXXIIème Colloque Francophone de la Mammalogie en octobre 2009 à Morlaix[10].
-des animations pour la nuit européenne de la chauve-souris[11]
+Havres de paix pour la loutre : il en existait 59 en 2019, comme les abords du lac du Drennec par exemple.
+Refuges à chauves-souris, il en existait 180 en 2019, comme l'abbaye de Beauport ou le domaine de Ménez-Meur par exemple
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Groupe_mammalogique_breton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_mammalogique_breton</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Actions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vulgarisation sur les mammifères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le GMB a organisé :
+la Journée des Mammifères sauvages de Bretagne, réunion annuelle des mammalogistes bretons depuis 2007.
+le XXXIIème Colloque Francophone de la Mammalogie en octobre 2009 à Morlaix.
+des animations pour la nuit européenne de la chauve-souris
 Et a conduit deux opérations de prospection naturaliste itinérante :
-Le chemin du Ki-dour (loutre en breton), réalisé en 2010 le long du canal de Nantes à Brest, qui a permis 794 observations pour 45 espèces différentes et 400 participants[12]. Cette opération a eu le soutien du prix Agir, porté par France Nature Environnement et le crédit coopératif[13]
-La balade de l'hermine, réalisée en 2013 le long du canal d'Ille-et-Rance, qui a permis d'observer 39 espèces différentes [14].</t>
+Le chemin du Ki-dour (loutre en breton), réalisé en 2010 le long du canal de Nantes à Brest, qui a permis 794 observations pour 45 espèces différentes et 400 participants. Cette opération a eu le soutien du prix Agir, porté par France Nature Environnement et le crédit coopératif
+La balade de l'hermine, réalisée en 2013 le long du canal d'Ille-et-Rance, qui a permis d'observer 39 espèces différentes .</t>
         </is>
       </c>
     </row>
